--- a/vpcdaily.xlsx
+++ b/vpcdaily.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabareesh </t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Hari Krishnan(Sabareesh)</t>
+  </si>
+  <si>
+    <t>Krishnan(Archana Rajesh)</t>
   </si>
 </sst>
 </file>
@@ -597,9 +609,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -942,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,95 +973,101 @@
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1116,7 +1135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1152,9 +1171,235 @@
       </c>
       <c r="L3" t="s">
         <v>29</v>
+      </c>
+      <c r="M3" s="1">
+        <v>44724</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44754</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>44785</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="1">
+        <v>44816</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>9786702204</v>
+      </c>
+      <c r="C4">
+        <v>50000</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44637</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44668</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1">
+        <v>44699</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1">
+        <v>44729</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1">
+        <v>44760</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>44791</v>
+      </c>
+      <c r="R4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="1">
+        <v>44823</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="1">
+        <v>44852</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="1">
+        <v>44883</v>
+      </c>
+      <c r="X4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>44913</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>44943</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>44974</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>45003</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>8778789037</v>
+      </c>
+      <c r="C5">
+        <v>150000</v>
+      </c>
+      <c r="D5">
+        <v>6000</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44637</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44668</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1">
+        <v>44699</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1">
+        <v>44729</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1">
+        <v>44760</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>44791</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="1">
+        <v>44823</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="1">
+        <v>44852</v>
+      </c>
+      <c r="V5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="1">
+        <v>44883</v>
+      </c>
+      <c r="X5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>44913</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>44943</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>44974</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>45003</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/vpcdaily.xlsx
+++ b/vpcdaily.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Eswari(Vadavalli PN Pudur)</t>
   </si>
   <si>
@@ -125,6 +122,27 @@
   </si>
   <si>
     <t>Krishnan(Archana Rajesh)</t>
+  </si>
+  <si>
+    <t>Vijay (Medusind)</t>
+  </si>
+  <si>
+    <t>Gomathi Trichy</t>
+  </si>
+  <si>
+    <t>Ram Mohan Trichy</t>
+  </si>
+  <si>
+    <t>Arulpandian(Rajkumar Adv</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Archana Rajesh</t>
+  </si>
+  <si>
+    <t>Manivel(Rajkuar Advocate)</t>
   </si>
 </sst>
 </file>
@@ -955,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1108,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1">
         <v>44656</v>
@@ -1137,7 +1155,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>8838888650</v>
@@ -1158,7 +1176,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1">
         <v>44663</v>
@@ -1199,7 +1217,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>9786702204</v>
@@ -1220,19 +1238,19 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1">
         <v>44668</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1">
         <v>44699</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1">
         <v>44729</v>
@@ -1297,7 +1315,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>8778789037</v>
@@ -1318,19 +1336,19 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1">
         <v>44668</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1">
         <v>44699</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="1">
         <v>44729</v>
@@ -1395,7 +1413,424 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>8754044137</v>
+      </c>
+      <c r="C6">
+        <v>40000</v>
+      </c>
+      <c r="D6">
+        <v>1600</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44639</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44657</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>36</v>
+      </c>
+      <c r="B7">
+        <v>9698675825</v>
+      </c>
+      <c r="C7">
+        <v>10000</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44641</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44662</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1">
+        <v>44699</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="1">
+        <v>44722</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="1">
+        <v>44753</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>44787</v>
+      </c>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>25000</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44641</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44669</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>9080700000</v>
+      </c>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>3000</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44644</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44684</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1">
+        <v>44707</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="1">
+        <v>44744</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="1">
+        <v>44776</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>44833</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="1">
+        <v>44845</v>
+      </c>
+      <c r="T9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="1">
+        <v>44870</v>
+      </c>
+      <c r="V9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="1">
+        <v>44917</v>
+      </c>
+      <c r="X9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>44957</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>9659838134</v>
+      </c>
+      <c r="C10">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44648</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44679</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1">
+        <v>44709</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="1">
+        <v>44740</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="1">
+        <v>44770</v>
+      </c>
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>44803</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="1">
+        <v>44833</v>
+      </c>
+      <c r="T10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="1">
+        <v>44865</v>
+      </c>
+      <c r="V10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="1">
+        <v>44895</v>
+      </c>
+      <c r="X10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>44925</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>44956</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>44986</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>8754044137</v>
+      </c>
+      <c r="C11">
+        <v>50000</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44655</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44687</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="1">
+        <v>44718</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="1">
+        <v>44749</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="1">
+        <v>44782</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>8754044137</v>
+      </c>
+      <c r="C12">
+        <v>100000</v>
+      </c>
+      <c r="D12">
+        <v>4000</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44656</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="1">
+        <v>44687</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1">
+        <v>44718</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="1">
+        <v>44749</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="1">
+        <v>44782</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>44821</v>
+      </c>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="1">
+        <v>44847</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="1">
+        <v>44880</v>
+      </c>
+      <c r="V12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>8610857307</v>
       </c>
     </row>
   </sheetData>
